--- a/docs/Geente_Bomen_Overzicht_met_Totalen.xlsx
+++ b/docs/Geente_Bomen_Overzicht_met_Totalen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerwinveenstra/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerwinveenstra/git/toffeperen/de-toffe-peren/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6CBD94-B61B-2243-9158-1260619CEAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F5C687-7975-1A40-B241-4F0026F6704D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35840" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36460" yWindow="3300" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
   <si>
     <t>Soort</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>TOTAAL</t>
-  </si>
-  <si>
-    <t>Piro-dwerg</t>
   </si>
   <si>
     <t>Kirchensaller</t>
@@ -560,7 +557,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -603,10 +600,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -636,7 +633,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -666,7 +663,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -696,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -726,7 +723,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -756,7 +753,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -786,7 +783,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -816,7 +813,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -846,7 +843,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -873,10 +870,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -906,7 +903,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -936,7 +933,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -966,7 +963,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -996,7 +993,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1026,7 +1023,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1056,7 +1053,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1086,7 +1083,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1113,10 +1110,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
         <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1143,10 +1140,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1173,10 +1170,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -1203,10 +1200,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1233,10 +1230,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1263,10 +1260,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1293,10 +1290,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1323,10 +1320,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1353,10 +1350,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1383,10 +1380,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1413,10 +1410,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1443,10 +1440,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1473,10 +1470,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1503,10 +1500,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1533,10 +1530,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1563,10 +1560,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1593,10 +1590,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1619,20 +1616,14 @@
       <c r="I35">
         <f t="shared" si="0"/>
         <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I36">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
         <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1659,10 +1650,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1689,10 +1680,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1719,10 +1710,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1749,10 +1740,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1779,10 +1770,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1809,10 +1800,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1839,10 +1830,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1869,10 +1860,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1899,10 +1890,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1929,10 +1920,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1959,10 +1950,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1989,10 +1980,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -2019,10 +2010,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2049,10 +2040,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -2079,10 +2070,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -2109,10 +2100,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2139,10 +2130,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2169,10 +2160,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -2199,10 +2190,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -2229,10 +2220,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2259,10 +2250,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2289,10 +2280,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -2353,7 +2344,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B64">
         <f>SUM((100/I60)*H60)</f>
